--- a/frontend/public/employee_import_template.xlsx
+++ b/frontend/public/employee_import_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michal.sicinski\webapp\ODPADnik\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EC07334-4FB3-419C-93A8-12591E2285F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4788B304-4469-4DA8-84BC-44F4EBCA9139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{113FC82A-5B4B-4142-9AEA-C4393F60E234}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Imię / Name</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>Orzeczenie o niepełnosprawności</t>
+  </si>
+  <si>
+    <t>Wymiar pracy</t>
+  </si>
+  <si>
+    <t>Praca w godzinach nadliczbowych</t>
+  </si>
+  <si>
+    <t>Praca w godzinach nocnych</t>
   </si>
 </sst>
 </file>
@@ -439,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8108CECB-CA07-4A1D-9A18-509AAF70B969}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,9 +463,11 @@
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" customWidth="1"/>
     <col min="7" max="7" width="27.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,6 +488,15 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
